--- a/docs/dataset.xlsx
+++ b/docs/dataset.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20346"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D69008-F37C-4E84-A967-10185670AA22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A49C3B-1AB4-49DC-9A85-4FDC172C635D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -350,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,7 +389,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>303</v>
+      </c>
+      <c r="F2">
+        <v>211</v>
+      </c>
+      <c r="G2">
+        <v>1633</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -399,13 +414,43 @@
       <c r="B3">
         <v>3</v>
       </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>328</v>
+      </c>
+      <c r="F3">
+        <v>1018</v>
+      </c>
+      <c r="G3">
+        <v>2248</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>57</v>
+      </c>
+      <c r="F4">
+        <v>521</v>
+      </c>
+      <c r="G4">
+        <v>7638</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -413,7 +458,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>140</v>
+      </c>
+      <c r="F5">
+        <v>993</v>
+      </c>
+      <c r="G5">
+        <v>5658</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -421,7 +481,22 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>94</v>
+      </c>
+      <c r="F6">
+        <v>305</v>
+      </c>
+      <c r="G6">
+        <v>641</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -429,7 +504,22 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>62</v>
+      </c>
+      <c r="F7">
+        <v>744</v>
+      </c>
+      <c r="G7">
+        <v>10027</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -437,72 +527,354 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>78</v>
+      </c>
+      <c r="F8">
+        <v>449</v>
+      </c>
+      <c r="G8">
+        <v>2363</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>63</v>
+      </c>
+      <c r="F9">
+        <v>699</v>
+      </c>
+      <c r="G9">
+        <v>3168</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>37</v>
+      </c>
+      <c r="F10">
+        <v>527</v>
+      </c>
+      <c r="G10">
+        <v>10988</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>119</v>
+      </c>
+      <c r="F11">
+        <v>190</v>
+      </c>
+      <c r="G11">
+        <v>7413</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>153</v>
+      </c>
+      <c r="F12">
+        <v>966</v>
+      </c>
+      <c r="G12">
+        <v>12718</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>110</v>
+      </c>
+      <c r="F13">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>175</v>
+      </c>
+      <c r="F14">
+        <v>143</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>114</v>
+      </c>
+      <c r="F15">
+        <v>689</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>69</v>
+      </c>
+      <c r="F16">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>133</v>
+      </c>
+      <c r="F17">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>48</v>
+      </c>
+      <c r="F18">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>161</v>
+      </c>
+      <c r="F19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>104</v>
+      </c>
+      <c r="F20">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>149</v>
+      </c>
+      <c r="F21">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>AVERAGE(B2:B21)</f>
+        <v>2.15</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:D22" si="0">AVERAGE(C2:C21)</f>
+        <v>6.45</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>16.45</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22" si="1">AVERAGE(E2:E21)</f>
+        <v>124.85</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22" si="2">AVERAGE(F2:F21)</f>
+        <v>500.05</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22" si="3">AVERAGE(G2:G21)</f>
+        <v>5863.181818181818</v>
+      </c>
+      <c r="H22" t="e">
+        <f t="shared" ref="H22" si="4">AVERAGE(H2:H21)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>STDEV(B2:B21)</f>
+        <v>1.1367080817685316</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:D23" si="5">STDEV(C2:C21)</f>
+        <v>1.6375527311718616</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>2.7810448623342596</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:H23" si="6">STDEV(E2:E21)</f>
+        <v>76.6319124125191</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="6"/>
+        <v>292.28743513336678</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>4170.541087633158</v>
+      </c>
+      <c r="H23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/docs/dataset.xlsx
+++ b/docs/dataset.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20346"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A49C3B-1AB4-49DC-9A85-4FDC172C635D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C8C417-3874-4EC6-BFD4-D74D886EDD7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="trainingTimes" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20,9 +21,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Target</t>
+  </si>
+  <si>
+    <t>Pick 1</t>
+  </si>
+  <si>
+    <t>Pick 2</t>
+  </si>
+  <si>
+    <t>Pick 3</t>
+  </si>
+  <si>
+    <t>Pick Max</t>
+  </si>
+  <si>
+    <t>Reduce</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Generous</t>
+  </si>
+  <si>
+    <t>Threshold</t>
   </si>
 </sst>
 </file>
@@ -47,12 +72,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -67,9 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -85,6 +117,954 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Exponential Rise in Training Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>trainingTimes!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>trainingTimes!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4643.3999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E374-4F53-A0B2-3F0653C4B4C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="512180328"/>
+        <c:axId val="512175080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="512180328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512175080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="512175080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512180328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A857E5-1BE4-40F2-ADF4-6E73B54D7BB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,7 +1333,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G12"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,6 +1636,9 @@
       <c r="F13">
         <v>74</v>
       </c>
+      <c r="G13">
+        <v>3621</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -676,6 +1659,9 @@
       <c r="F14">
         <v>143</v>
       </c>
+      <c r="G14">
+        <v>922</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -696,6 +1682,9 @@
       <c r="F15">
         <v>689</v>
       </c>
+      <c r="G15">
+        <v>800</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -716,6 +1705,9 @@
       <c r="F16">
         <v>316</v>
       </c>
+      <c r="G16">
+        <v>6895</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -736,6 +1728,9 @@
       <c r="F17">
         <v>359</v>
       </c>
+      <c r="G17">
+        <v>7297</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -756,6 +1751,9 @@
       <c r="F18">
         <v>696</v>
       </c>
+      <c r="G18">
+        <v>2928</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -776,6 +1774,9 @@
       <c r="F19">
         <v>250</v>
       </c>
+      <c r="G19">
+        <v>828</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -796,6 +1797,9 @@
       <c r="F20">
         <v>604</v>
       </c>
+      <c r="G20">
+        <v>3867</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -815,6 +1819,9 @@
       </c>
       <c r="F21">
         <v>247</v>
+      </c>
+      <c r="G21">
+        <v>1215</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -840,7 +1847,7 @@
       </c>
       <c r="G22">
         <f t="shared" ref="G22" si="3">AVERAGE(G2:G21)</f>
-        <v>5863.181818181818</v>
+        <v>4643.3999999999996</v>
       </c>
       <c r="H22" t="e">
         <f t="shared" ref="H22" si="4">AVERAGE(H2:H21)</f>
@@ -870,7 +1877,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="6"/>
-        <v>4170.541087633158</v>
+        <v>3712.9532209620729</v>
       </c>
       <c r="H23" t="e">
         <f t="shared" si="6"/>
@@ -880,5 +1887,192 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E79FF6-B303-4144-919C-263490D5C617}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>969</v>
+      </c>
+      <c r="E2">
+        <v>384</v>
+      </c>
+      <c r="F2">
+        <v>353</v>
+      </c>
+      <c r="G2">
+        <v>353</v>
+      </c>
+      <c r="H2">
+        <v>444</v>
+      </c>
+      <c r="J2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>509</v>
+      </c>
+      <c r="E3">
+        <v>970</v>
+      </c>
+      <c r="F3">
+        <v>505</v>
+      </c>
+      <c r="G3">
+        <v>505</v>
+      </c>
+      <c r="H3">
+        <v>536</v>
+      </c>
+      <c r="J3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>512</v>
+      </c>
+      <c r="E4">
+        <v>505</v>
+      </c>
+      <c r="F4">
+        <v>967</v>
+      </c>
+      <c r="G4">
+        <v>967</v>
+      </c>
+      <c r="H4">
+        <v>573</v>
+      </c>
+      <c r="J4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>531</v>
+      </c>
+      <c r="E5">
+        <v>483</v>
+      </c>
+      <c r="F5">
+        <v>967</v>
+      </c>
+      <c r="G5">
+        <v>967</v>
+      </c>
+      <c r="H5">
+        <v>579</v>
+      </c>
+      <c r="J5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>978</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6">
+        <v>620</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>